--- a/config_Release/activity_year_config_new.xlsx
+++ b/config_Release/activity_year_config_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\JyQipai_doc\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1594,7 +1594,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1631,6 +1631,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1663,7 +1669,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1844,6 +1850,22 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2123,13 +2145,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="P65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7293,6 +7315,18 @@
         <v>385</v>
       </c>
     </row>
+    <row r="96" spans="1:22" s="66" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B96" s="67"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="69"/>
+      <c r="I96" s="69"/>
+      <c r="J96" s="69"/>
+      <c r="P96" s="69"/>
+      <c r="Q96" s="69"/>
+      <c r="R96" s="65"/>
+      <c r="T96" s="71"/>
+      <c r="V96" s="70"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U71"/>
   <phoneticPr fontId="11" type="noConversion"/>
